--- a/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Jcrew.xlsx
+++ b/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Jcrew.xlsx
@@ -443,7 +443,7 @@
     <t>https://factory.jcrew.com/c/boys_shops/online_exclusives</t>
   </si>
   <si>
-    <t/>
+    <t>Respose code</t>
   </si>
 </sst>
 </file>
@@ -1186,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K903"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,6 +1195,7 @@
     <col min="1" max="1" width="41.85546875" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="58.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="24.5703125" customWidth="1" collapsed="1"/>
   </cols>

--- a/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Jcrew.xlsx
+++ b/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Jcrew.xlsx
@@ -1187,7 +1187,7 @@
   <dimension ref="A1:K903"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1195,7 @@
     <col min="1" max="1" width="41.85546875" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="58.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="24.5703125" customWidth="1" collapsed="1"/>
   </cols>

--- a/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Jcrew.xlsx
+++ b/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Jcrew.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14880" windowHeight="5865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="5865"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:F332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,9 +486,7 @@
       <c r="B3" s="9"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">

--- a/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Jcrew.xlsx
+++ b/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Jcrew.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\venkatakrishna-c\Desktop\CodeCheckin\20-03\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="5865"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="189">
   <si>
     <t>Title</t>
   </si>
@@ -34,10 +38,559 @@
     <t>Images Status</t>
   </si>
   <si>
-    <t>Failed Url &amp; error code</t>
-  </si>
-  <si>
     <t>Page Load Time(MilliSec)</t>
+  </si>
+  <si>
+    <t>https://hello.jcrew.com/</t>
+  </si>
+  <si>
+    <t>https://d.comenity.net/jcrew/</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/index.jsp?srcCode=JCFooter</t>
+  </si>
+  <si>
+    <t>https://jobs.jcrew.com/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/jcrew</t>
+  </si>
+  <si>
+    <t>https://twitter.com/jcrew</t>
+  </si>
+  <si>
+    <t>https://jcrew.tumblr.com/</t>
+  </si>
+  <si>
+    <t>https://instagram.com/jcrew</t>
+  </si>
+  <si>
+    <t>https://plus.google.com/+Jcrew</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/jcrewinsider</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/user/jcrew</t>
+  </si>
+  <si>
+    <t>https://www.cpsc.gov/recalls/2015/j-crew-expands-recall-of-baby-coveralls</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/Girls.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/girls_feature/newarrivals</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/c/girls_special_shops/pajamashop</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/r/search/?N=21+19&amp;Ntrm=&amp;Nsrt=3&amp;Npge=1&amp;Nrpp=60</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/Boys.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_feature/newarrivals</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_feature/boysludlowshop</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/r/search/?N=21+18&amp;Ntrm=&amp;Nsrt=3&amp;Npge=1&amp;Nrpp=60</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/boys_special_shops/valentine.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/boys_special_shops/TheVacationShop.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_special_shops/monogramshop</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/r/help/teacher-student-discount</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/girls_feature/cozy_list.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/c/girls_special_shops/backtoschoolshop</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/c/girls_feature/the_birthday_shop_sm</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/boys_feature/cozy_list.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_special_shops/backtoschoolshop</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_special_shops/pajamashop</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/boys_special_shops/glow_in_the_dark.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_feature/the_birthday_shop_sm</t>
+  </si>
+  <si>
+    <t>Failed Url &amp; errwww code</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/womens_special_shops/garmentsfwwwgood.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_categwwwy/tiesandbowties</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_categwwwy/accesswwwies</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_categwwwy/socks</t>
+  </si>
+  <si>
+    <t>https://stores.jcrew.com/</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/?srcCode=JCNavC</t>
+  </si>
+  <si>
+    <t>https://stores.jcrew.com/?</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/?srcCode=JCFooter</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/c/girls_category/dresses</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/c/girls_category/tshirtsandtanktops</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/c/girls_category/collectibletees</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/c/girls_category/leggings</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/c/girls_category/shirts</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/c/girls_category/sweaters</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/c/girls_category/skirts</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/c/girls_category/shorts</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/c/girls_category/pants</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/c/girls_category/denim</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/c/girls_category/sweatshirtsandsweatpants</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/c/girls_category/swimandrashguards</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/c/girls_category/beachcoverups</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/c/girls_category/jacketsouterwear</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/c/girls_category/pajamas</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/c/girls_category/jcrewingoodcompany</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/c/girls_category/bags</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/c/girls_category/shoes</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/c/girls_category/jewelryaccessories</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/c/girls_category/sockstights</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/girls_category/coldweather</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/womens_special_shops/garmentsforgood.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_category/graphicsshop</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_category/tshirtsandpolos</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_category/shirts</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_category/pants</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_category/denim</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_category/sweatshirtssweatpants</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_category/sweaters</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_category/shorts</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_category/sportcoatsandvest</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_category/swimrashguards</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_category/coatsandjackets</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_category/pajamas</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_category/underwear</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_category/jcrewingoodcompany</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_category/shoes</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_category/bags</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_category/tiesandbowties</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_category/accessories</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_category/socks</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_special_shops/schooluniformshop</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/womens_special_shops/garmentsforgood.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/r/login</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/checkout2/shoppingbag.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/womens-clothing.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/mens-clothing.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/r/sale</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/womens_feature/newarrivals?intcmp=newHP_main_w_newarrivals</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/mens_feature/newarrivals?intcmp=newHP_main_m_newarrivals</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/girls_feature/newarrivals?intcmp=newHP_main_g_newarrivals</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/boys_feature/newarrivals?intcmp=newHP_main_b_newarrivals</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/womens_feature/winter_coats.jsp?sidecar=true&amp;intcmp=newHP_main_w_coats</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/mens_feature/coats.jsp?sidecar=true&amp;intcmp=newHP_feature1_m_coats</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/girls_feature/LooksWeLove.jsp?sidecar=true&amp;intcmp=newHP_feature2_cc_coats</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/help/shipping_handling.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/help/returns_exchanges.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/footie/contactus.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/help/request_catalog.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/help/gift_card.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/footie/ourservices_sm.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/r/help/teacher-student-discount?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/r/size-charts-module</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/promo.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/help/credit_card.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/aboutus/jcrew.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/flatpages/social_responsibility.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/mens_feature/TheSuitShop.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/r/context-chooser</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/footer/termsofuse.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/help/privacy_policy.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/in/womens-clothing.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_feature/newarrivals</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/womens_feature/lookswelove.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/womens-clothing.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_special_sizes/petite</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_special_sizes/tall</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_special_sizes/size16to20</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/womens_feature/ReadytoPartyCollection.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/womens_special_shops/TheVacationShop_sm.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/r/search/?N=21+17&amp;Ntrm=&amp;Nsrt=3&amp;Npge=1&amp;Nrpp=60</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/mens_feature/newarrivals</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/mens_feature/cheatsheet_fall.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/mens_special_sizes/slim</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/mens_special_sizes/tall</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/mens_special_shops/tuxedoshop</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/mens_special_shops/monogramshop</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/r/search/?N=21+16&amp;Ntrm=&amp;Nsrt=3&amp;Npge=1&amp;Nrpp=60</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/p/womens_category/outerwear/wool/chateau-parka-in-italian-stadiumcloth-wool/G9093?color_name=bright-butternut&amp;intcmp=newHP_feature3_w_chateaucoat</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/help/order_status.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/help/international_orders.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/womens_category/sweaters/cardigans</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/womens_category/blazers</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/mens_category/sweaters</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/womens_special_shops/weartoworkshop</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_category/shirtsandtops</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_category/tshirtsandtanktops</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_category/dresses</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_category/readytopartycollection</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_category/sweaters</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/cwomens_category/pants2.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/womens_category/denim.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_category/blazers</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_category/outerwear</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_category/suiting</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_category/skirts</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_category/shorts</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/womens_category/sport.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_category/swim2</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_category/beachcoverups</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_category/ingoodcompany</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_category/pajamas</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/womens_category/Collection.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_category/sweatshirtssweatpants</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_category/shoes</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/womens_category/sunglasses.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_category/scarveshatsgloves</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/womens_category/jewelry.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_category/finejewelry</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_category/handbags</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_category/accessories</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_category/socksandtights</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/ca/c/womens_special_shops/weartoworkshop</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/mens_category/shirts</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/mens_category/dressshirts</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/mens_category/polostees</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/mens_category/pants</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/mens_category/Denim.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/mens_category/teesfleece</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/mens_category/sport.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/mens_category/sportcoatsandvests</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/mens_category/outerwear</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/mens_category/underwearpajamas</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/mens_category/WallaceBarnes.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/mens_category/jcrewingoodcompany</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/mens_category/shortsandswim</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/mens_category/shoes.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/mens_category/socks</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/mens_category/sunglasses.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/mens_category/accessories</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/mens_category/belts</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/mens_category/bags</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/c/mens_category/tiesandpocketsquares</t>
   </si>
 </sst>
 </file>
@@ -102,7 +655,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -125,13 +678,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -147,15 +726,26 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
@@ -438,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F332"/>
+  <dimension ref="A1:F197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C2" sqref="C2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -470,12 +1060,14 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -483,7 +1075,9 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -491,7 +1085,9 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -499,7 +1095,9 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -507,7 +1105,9 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -515,7 +1115,9 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -523,7 +1125,9 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -531,7 +1135,9 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -539,7 +1145,9 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -547,7 +1155,9 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="10"/>
+      <c r="B11" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -555,7 +1165,9 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="11"/>
+      <c r="B12" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -563,7 +1175,9 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -571,7 +1185,9 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -579,7 +1195,9 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -587,7 +1205,9 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -595,7 +1215,9 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -603,7 +1225,9 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -611,7 +1235,9 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -619,7 +1245,9 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>135</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -627,7 +1255,9 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -635,7 +1265,9 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="9"/>
+      <c r="B22" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -643,7 +1275,9 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -651,7 +1285,9 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="9"/>
+      <c r="B24" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -659,7 +1295,9 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="9"/>
+      <c r="B25" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -667,7 +1305,9 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
+      <c r="B26" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -675,7 +1315,9 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
+      <c r="B27" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -683,7 +1325,9 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
+      <c r="B28" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -691,7 +1335,9 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
+      <c r="B29" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -699,7 +1345,9 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
+      <c r="B30" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -707,7 +1355,9 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
+      <c r="B31" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -715,7 +1365,9 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
+      <c r="B32" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -723,7 +1375,9 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
+      <c r="B33" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -731,7 +1385,9 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
+      <c r="B34" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -739,7 +1395,9 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="9"/>
+      <c r="B35" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -747,7 +1405,9 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="9"/>
+      <c r="B36" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -755,7 +1415,9 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="9"/>
+      <c r="B37" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -763,7 +1425,9 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="9"/>
+      <c r="B38" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -771,7 +1435,9 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="9"/>
+      <c r="B39" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -779,7 +1445,9 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="9"/>
+      <c r="B40" s="9" t="s">
+        <v>137</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -787,7 +1455,9 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="9"/>
+      <c r="B41" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -795,7 +1465,9 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="B42" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -803,7 +1475,9 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="B43" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -811,7 +1485,9 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="B44" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -819,7 +1495,9 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="B45" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -827,7 +1505,9 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="B46" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -835,7 +1515,9 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="B47" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -843,7 +1525,9 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="B48" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -851,7 +1535,9 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="B49" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -859,7 +1545,9 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="B50" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -867,7 +1555,9 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+      <c r="B51" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -875,7 +1565,9 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="B52" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -883,7 +1575,9 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="B53" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -891,7 +1585,9 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="B54" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -899,7 +1595,9 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -907,7 +1605,9 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="B56" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -915,7 +1615,9 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="B57" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -923,7 +1625,9 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="B58" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -931,7 +1635,9 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="B59" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -939,7 +1645,9 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="B60" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -947,7 +1655,9 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="B61" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -955,7 +1665,9 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="B62" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -963,7 +1675,9 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="B63" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -971,7 +1685,9 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="B64" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -979,7 +1695,9 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="B65" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -987,7 +1705,9 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="B66" s="9" t="s">
+        <v>147</v>
+      </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -995,7 +1715,9 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+      <c r="B67" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -1003,7 +1725,9 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="B68" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -1011,7 +1735,9 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="B69" s="9" t="s">
+        <v>150</v>
+      </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -1019,7 +1745,9 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="B70" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -1027,7 +1755,9 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+      <c r="B71" s="11" t="s">
+        <v>152</v>
+      </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -1035,7 +1765,9 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+      <c r="B72" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -1043,7 +1775,9 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+      <c r="B73" s="9" t="s">
+        <v>154</v>
+      </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -1051,7 +1785,9 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="B74" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -1059,7 +1795,9 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+      <c r="B75" s="9" t="s">
+        <v>156</v>
+      </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -1067,7 +1805,9 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="B76" s="9" t="s">
+        <v>157</v>
+      </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -1075,7 +1815,9 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="B77" s="9" t="s">
+        <v>158</v>
+      </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -1083,7 +1825,9 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="B78" s="9" t="s">
+        <v>159</v>
+      </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -1091,7 +1835,9 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+      <c r="B79" s="9" t="s">
+        <v>160</v>
+      </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -1099,7 +1845,9 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+      <c r="B80" s="9" t="s">
+        <v>161</v>
+      </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -1107,7 +1855,9 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+      <c r="B81" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -1115,7 +1865,9 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="B82" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -1123,7 +1875,9 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+      <c r="B83" s="9" t="s">
+        <v>164</v>
+      </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -1131,7 +1885,9 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+      <c r="B84" s="9" t="s">
+        <v>165</v>
+      </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -1139,7 +1895,9 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+      <c r="B85" s="9" t="s">
+        <v>166</v>
+      </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -1147,7 +1905,9 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+      <c r="B86" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -1155,7 +1915,9 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+      <c r="B87" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -1163,7 +1925,9 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+      <c r="B88" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -1171,7 +1935,9 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+      <c r="B89" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -1179,7 +1945,9 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+      <c r="B90" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -1187,7 +1955,9 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
+      <c r="B91" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -1195,7 +1965,9 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
+      <c r="B92" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -1203,7 +1975,9 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+      <c r="B93" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -1211,7 +1985,9 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+      <c r="B94" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -1219,7 +1995,9 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
+      <c r="B95" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -1227,7 +2005,9 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+      <c r="B96" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -1235,7 +2015,9 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+      <c r="B97" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -1243,7 +2025,9 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+      <c r="B98" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -1251,7 +2035,9 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+      <c r="B99" s="12" t="s">
+        <v>169</v>
+      </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -1259,7 +2045,9 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+      <c r="B100" s="12" t="s">
+        <v>170</v>
+      </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -1267,7 +2055,9 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+      <c r="B101" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -1275,7 +2065,9 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+      <c r="B102" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -1283,15 +2075,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+      <c r="B103" s="10" t="s">
+        <v>172</v>
+      </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+      <c r="B104" s="12" t="s">
+        <v>173</v>
+      </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -1299,23 +2095,29 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+      <c r="B105" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+      <c r="B106" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+      <c r="B107" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -1323,7 +2125,9 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+      <c r="B108" s="12" t="s">
+        <v>176</v>
+      </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -1331,7 +2135,9 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+      <c r="B109" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -1339,23 +2145,29 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+      <c r="B110" s="12" t="s">
+        <v>178</v>
+      </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+      <c r="B111" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+      <c r="B112" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -1363,15 +2175,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+      <c r="B113" s="13" t="s">
+        <v>181</v>
+      </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+      <c r="B114" s="12" t="s">
+        <v>182</v>
+      </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -1379,15 +2195,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+      <c r="B115" s="12" t="s">
+        <v>183</v>
+      </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+      <c r="B116" s="12" t="s">
+        <v>184</v>
+      </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -1395,7 +2215,9 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
+      <c r="B117" s="12" t="s">
+        <v>185</v>
+      </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -1403,7 +2225,9 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+      <c r="B118" s="12" t="s">
+        <v>186</v>
+      </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -1411,7 +2235,9 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+      <c r="B119" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -1419,7 +2245,9 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
+      <c r="B120" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -1427,7 +2255,9 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+      <c r="B121" s="12" t="s">
+        <v>129</v>
+      </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -1435,7 +2265,9 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+      <c r="B122" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -1443,15 +2275,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
+      <c r="B123" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
+      <c r="B124" s="12" t="s">
+        <v>132</v>
+      </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -1459,7 +2295,9 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+      <c r="B125" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -1467,7 +2305,9 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
+      <c r="B126" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -1475,7 +2315,9 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
+      <c r="B127" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -1483,7 +2325,9 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
+      <c r="B128" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -1491,7 +2335,9 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
+      <c r="B129" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -1499,7 +2345,9 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
+      <c r="B130" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -1507,7 +2355,9 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+      <c r="B131" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -1515,7 +2365,9 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
+      <c r="B132" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -1523,7 +2375,9 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
+      <c r="B133" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -1531,7 +2385,9 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
+      <c r="B134" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -1539,7 +2395,9 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
+      <c r="B135" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -1547,7 +2405,9 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
+      <c r="B136" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -1555,7 +2415,9 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
+      <c r="B137" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -1563,7 +2425,9 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
+      <c r="B138" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -1571,7 +2435,9 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
+      <c r="B139" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -1579,7 +2445,9 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
+      <c r="B140" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -1587,7 +2455,9 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
+      <c r="B141" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -1595,7 +2465,9 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
+      <c r="B142" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -1603,7 +2475,9 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+      <c r="B143" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -1611,7 +2485,9 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
+      <c r="B144" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -1619,7 +2495,9 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
+      <c r="B145" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -1627,7 +2505,9 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
+      <c r="B146" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -1635,7 +2515,9 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
+      <c r="B147" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -1643,7 +2525,9 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
+      <c r="B148" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -1651,7 +2535,9 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
+      <c r="B149" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -1659,7 +2545,9 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
+      <c r="B150" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -1667,7 +2555,9 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
+      <c r="B151" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -1675,7 +2565,9 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
+      <c r="B152" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -1683,7 +2575,9 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
+      <c r="B153" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -1691,7 +2585,9 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
+      <c r="B154" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -1699,7 +2595,9 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
+      <c r="B155" s="17" t="s">
+        <v>31</v>
+      </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -1707,7 +2605,9 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
+      <c r="B156" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -1715,7 +2615,9 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
+      <c r="B157" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -1723,7 +2625,9 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
+      <c r="B158" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -1731,7 +2635,9 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
+      <c r="B159" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -1739,7 +2645,9 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
+      <c r="B160" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -1747,7 +2655,9 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+      <c r="B161" s="18" t="s">
+        <v>32</v>
+      </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -1755,7 +2665,9 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
+      <c r="B162" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -1763,7 +2675,9 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
+      <c r="B163" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -1771,7 +2685,9 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
+      <c r="B164" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -1779,7 +2695,9 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
+      <c r="B165" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -1787,7 +2705,9 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
+      <c r="B166" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -1795,7 +2715,9 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
+      <c r="B167" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -1803,7 +2725,9 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
+      <c r="B168" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -1811,7 +2735,9 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
+      <c r="B169" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -1819,7 +2745,9 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
+      <c r="B170" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -1827,7 +2755,9 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
+      <c r="B171" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -1835,7 +2765,9 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
+      <c r="B172" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -1843,7 +2775,9 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
+      <c r="B173" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -1851,7 +2785,9 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
+      <c r="B174" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -1859,7 +2795,9 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
+      <c r="B175" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -1867,7 +2805,9 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
+      <c r="B176" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -1875,7 +2815,9 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
+      <c r="B177" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -1883,7 +2825,9 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
+      <c r="B178" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -1891,7 +2835,9 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
+      <c r="B179" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -1899,7 +2845,9 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
+      <c r="B180" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -1907,7 +2855,9 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
+      <c r="B181" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -1915,7 +2865,9 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
+      <c r="B182" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -1923,7 +2875,9 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
+      <c r="B183" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -1931,7 +2885,9 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
+      <c r="B184" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -1939,7 +2895,9 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
+      <c r="B185" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -1947,7 +2905,9 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
+      <c r="B186" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -1955,7 +2915,9 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
+      <c r="B187" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -1963,7 +2925,9 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
+      <c r="B188" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -1971,7 +2935,9 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
+      <c r="B189" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -1979,7 +2945,9 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
+      <c r="B190" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -1987,7 +2955,9 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
+      <c r="B191" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -1995,7 +2965,9 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
+      <c r="B192" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -2003,7 +2975,9 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
+      <c r="B193" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -2011,7 +2985,9 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
+      <c r="B194" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -2019,7 +2995,9 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
+      <c r="B195" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -2027,7 +3005,9 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
+      <c r="B196" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -2035,1094 +3015,71 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
+      <c r="B197" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-      <c r="C206" s="1"/>
-      <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
-      <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
-      <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="1"/>
-      <c r="F230" s="1"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
-      <c r="E232" s="1"/>
-      <c r="F232" s="1"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
-      <c r="E233" s="1"/>
-      <c r="F233" s="1"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
-      <c r="E235" s="1"/>
-      <c r="F235" s="1"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
-      <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
-      <c r="D239" s="1"/>
-      <c r="E239" s="1"/>
-      <c r="F239" s="1"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
-      <c r="E240" s="1"/>
-      <c r="F240" s="1"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
-      <c r="E241" s="1"/>
-      <c r="F241" s="1"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
-      <c r="E242" s="1"/>
-      <c r="F242" s="1"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
-      <c r="E243" s="1"/>
-      <c r="F243" s="1"/>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
-      <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
-      <c r="E244" s="1"/>
-      <c r="F244" s="1"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
-      <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
-      <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
-      <c r="C246" s="1"/>
-      <c r="D246" s="1"/>
-      <c r="E246" s="1"/>
-      <c r="F246" s="1"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
-      <c r="D247" s="1"/>
-      <c r="E247" s="1"/>
-      <c r="F247" s="1"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-      <c r="C248" s="1"/>
-      <c r="D248" s="1"/>
-      <c r="E248" s="1"/>
-      <c r="F248" s="1"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
-      <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
-      <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
-      <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
-      <c r="C254" s="1"/>
-      <c r="D254" s="1"/>
-      <c r="E254" s="1"/>
-      <c r="F254" s="1"/>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
-      <c r="D255" s="1"/>
-      <c r="E255" s="1"/>
-      <c r="F255" s="1"/>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
-      <c r="C256" s="1"/>
-      <c r="D256" s="1"/>
-      <c r="E256" s="1"/>
-      <c r="F256" s="1"/>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
-      <c r="C257" s="1"/>
-      <c r="D257" s="1"/>
-      <c r="E257" s="1"/>
-      <c r="F257" s="1"/>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
-      <c r="D258" s="1"/>
-      <c r="E258" s="1"/>
-      <c r="F258" s="1"/>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
-      <c r="D259" s="1"/>
-      <c r="E259" s="1"/>
-      <c r="F259" s="1"/>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
-      <c r="C260" s="1"/>
-      <c r="D260" s="1"/>
-      <c r="E260" s="1"/>
-      <c r="F260" s="1"/>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
-      <c r="D261" s="1"/>
-      <c r="E261" s="1"/>
-      <c r="F261" s="1"/>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
-      <c r="C262" s="1"/>
-      <c r="D262" s="1"/>
-      <c r="E262" s="1"/>
-      <c r="F262" s="1"/>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-      <c r="C263" s="1"/>
-      <c r="D263" s="1"/>
-      <c r="E263" s="1"/>
-      <c r="F263" s="1"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
-      <c r="D264" s="1"/>
-      <c r="E264" s="1"/>
-      <c r="F264" s="1"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
-      <c r="C265" s="1"/>
-      <c r="D265" s="1"/>
-      <c r="E265" s="1"/>
-      <c r="F265" s="1"/>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
-      <c r="C266" s="1"/>
-      <c r="D266" s="1"/>
-      <c r="E266" s="1"/>
-      <c r="F266" s="1"/>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
-      <c r="C267" s="1"/>
-      <c r="D267" s="1"/>
-      <c r="E267" s="1"/>
-      <c r="F267" s="1"/>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
-      <c r="C268" s="1"/>
-      <c r="D268" s="1"/>
-      <c r="E268" s="1"/>
-      <c r="F268" s="1"/>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
-      <c r="D269" s="1"/>
-      <c r="E269" s="1"/>
-      <c r="F269" s="1"/>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
-      <c r="C270" s="1"/>
-      <c r="D270" s="1"/>
-      <c r="E270" s="1"/>
-      <c r="F270" s="1"/>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
-      <c r="D271" s="1"/>
-      <c r="E271" s="1"/>
-      <c r="F271" s="1"/>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
-      <c r="C272" s="1"/>
-      <c r="D272" s="1"/>
-      <c r="E272" s="1"/>
-      <c r="F272" s="1"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
-      <c r="D273" s="1"/>
-      <c r="E273" s="1"/>
-      <c r="F273" s="1"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
-      <c r="C274" s="1"/>
-      <c r="D274" s="1"/>
-      <c r="E274" s="1"/>
-      <c r="F274" s="1"/>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
-      <c r="C275" s="1"/>
-      <c r="D275" s="1"/>
-      <c r="E275" s="1"/>
-      <c r="F275" s="1"/>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
-      <c r="C276" s="1"/>
-      <c r="D276" s="1"/>
-      <c r="E276" s="1"/>
-      <c r="F276" s="1"/>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
-      <c r="C277" s="1"/>
-      <c r="D277" s="1"/>
-      <c r="E277" s="1"/>
-      <c r="F277" s="1"/>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
-      <c r="C278" s="1"/>
-      <c r="D278" s="1"/>
-      <c r="E278" s="1"/>
-      <c r="F278" s="1"/>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
-      <c r="C279" s="1"/>
-      <c r="D279" s="1"/>
-      <c r="E279" s="1"/>
-      <c r="F279" s="1"/>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
-      <c r="C280" s="1"/>
-      <c r="D280" s="1"/>
-      <c r="E280" s="1"/>
-      <c r="F280" s="1"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
-      <c r="C281" s="1"/>
-      <c r="D281" s="1"/>
-      <c r="E281" s="1"/>
-      <c r="F281" s="1"/>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
-      <c r="D282" s="1"/>
-      <c r="E282" s="1"/>
-      <c r="F282" s="1"/>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
-      <c r="C283" s="1"/>
-      <c r="D283" s="1"/>
-      <c r="E283" s="1"/>
-      <c r="F283" s="1"/>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
-      <c r="D284" s="1"/>
-      <c r="E284" s="1"/>
-      <c r="F284" s="1"/>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
-      <c r="C285" s="1"/>
-      <c r="D285" s="1"/>
-      <c r="E285" s="1"/>
-      <c r="F285" s="1"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
-      <c r="C286" s="1"/>
-      <c r="D286" s="1"/>
-      <c r="E286" s="1"/>
-      <c r="F286" s="1"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
-      <c r="C287" s="1"/>
-      <c r="D287" s="1"/>
-      <c r="E287" s="1"/>
-      <c r="F287" s="1"/>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
-      <c r="C288" s="1"/>
-      <c r="D288" s="1"/>
-      <c r="E288" s="1"/>
-      <c r="F288" s="1"/>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="1"/>
-      <c r="B289" s="1"/>
-      <c r="C289" s="1"/>
-      <c r="D289" s="1"/>
-      <c r="E289" s="1"/>
-      <c r="F289" s="1"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="1"/>
-      <c r="B290" s="1"/>
-      <c r="C290" s="1"/>
-      <c r="D290" s="1"/>
-      <c r="E290" s="1"/>
-      <c r="F290" s="1"/>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
-      <c r="C291" s="1"/>
-      <c r="D291" s="1"/>
-      <c r="E291" s="1"/>
-      <c r="F291" s="1"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="1"/>
-      <c r="B292" s="1"/>
-      <c r="C292" s="1"/>
-      <c r="D292" s="1"/>
-      <c r="E292" s="1"/>
-      <c r="F292" s="1"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
-      <c r="C293" s="1"/>
-      <c r="D293" s="1"/>
-      <c r="E293" s="1"/>
-      <c r="F293" s="1"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="1"/>
-      <c r="B294" s="1"/>
-      <c r="C294" s="1"/>
-      <c r="D294" s="1"/>
-      <c r="E294" s="1"/>
-      <c r="F294" s="1"/>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="1"/>
-      <c r="B295" s="1"/>
-      <c r="C295" s="1"/>
-      <c r="D295" s="1"/>
-      <c r="E295" s="1"/>
-      <c r="F295" s="1"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="1"/>
-      <c r="B296" s="1"/>
-      <c r="C296" s="1"/>
-      <c r="D296" s="1"/>
-      <c r="E296" s="1"/>
-      <c r="F296" s="1"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="1"/>
-      <c r="B297" s="1"/>
-      <c r="C297" s="1"/>
-      <c r="D297" s="1"/>
-      <c r="E297" s="1"/>
-      <c r="F297" s="1"/>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
-      <c r="C298" s="1"/>
-      <c r="D298" s="1"/>
-      <c r="E298" s="1"/>
-      <c r="F298" s="1"/>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="1"/>
-      <c r="B299" s="1"/>
-      <c r="C299" s="1"/>
-      <c r="D299" s="1"/>
-      <c r="E299" s="1"/>
-      <c r="F299" s="1"/>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="1"/>
-      <c r="B300" s="1"/>
-      <c r="C300" s="1"/>
-      <c r="D300" s="1"/>
-      <c r="E300" s="1"/>
-      <c r="F300" s="1"/>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="1"/>
-      <c r="B301" s="1"/>
-      <c r="C301" s="1"/>
-      <c r="D301" s="1"/>
-      <c r="E301" s="1"/>
-      <c r="F301" s="1"/>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="1"/>
-      <c r="B302" s="1"/>
-      <c r="C302" s="1"/>
-      <c r="D302" s="1"/>
-      <c r="E302" s="1"/>
-      <c r="F302" s="1"/>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="1"/>
-      <c r="B303" s="1"/>
-      <c r="C303" s="1"/>
-      <c r="D303" s="1"/>
-      <c r="E303" s="1"/>
-      <c r="F303" s="1"/>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="1"/>
-      <c r="B304" s="1"/>
-      <c r="C304" s="1"/>
-      <c r="D304" s="1"/>
-      <c r="E304" s="1"/>
-      <c r="F304" s="1"/>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="1"/>
-      <c r="B305" s="1"/>
-      <c r="C305" s="1"/>
-      <c r="D305" s="1"/>
-      <c r="E305" s="1"/>
-      <c r="F305" s="1"/>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="1"/>
-      <c r="B306" s="1"/>
-      <c r="C306" s="1"/>
-      <c r="D306" s="1"/>
-      <c r="E306" s="1"/>
-      <c r="F306" s="1"/>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="1"/>
-      <c r="B307" s="1"/>
-      <c r="C307" s="1"/>
-      <c r="D307" s="1"/>
-      <c r="E307" s="1"/>
-      <c r="F307" s="1"/>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="1"/>
-      <c r="B308" s="1"/>
-      <c r="C308" s="1"/>
-      <c r="D308" s="1"/>
-      <c r="E308" s="1"/>
-      <c r="F308" s="1"/>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="1"/>
-      <c r="B309" s="1"/>
-      <c r="C309" s="1"/>
-      <c r="D309" s="1"/>
-      <c r="E309" s="1"/>
-      <c r="F309" s="1"/>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="1"/>
-      <c r="B310" s="1"/>
-      <c r="C310" s="1"/>
-      <c r="D310" s="1"/>
-      <c r="E310" s="1"/>
-      <c r="F310" s="1"/>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="1"/>
-      <c r="B311" s="1"/>
-      <c r="C311" s="1"/>
-      <c r="D311" s="1"/>
-      <c r="E311" s="1"/>
-      <c r="F311" s="1"/>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="1"/>
-      <c r="B312" s="1"/>
-      <c r="C312" s="1"/>
-      <c r="D312" s="1"/>
-      <c r="E312" s="1"/>
-      <c r="F312" s="1"/>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" s="1"/>
-      <c r="B313" s="1"/>
-      <c r="C313" s="1"/>
-      <c r="D313" s="1"/>
-      <c r="E313" s="1"/>
-      <c r="F313" s="1"/>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="1"/>
-      <c r="B314" s="1"/>
-      <c r="C314" s="1"/>
-      <c r="D314" s="1"/>
-      <c r="E314" s="1"/>
-      <c r="F314" s="1"/>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="1"/>
-      <c r="B315" s="1"/>
-      <c r="C315" s="1"/>
-      <c r="D315" s="1"/>
-      <c r="E315" s="1"/>
-      <c r="F315" s="1"/>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" s="1"/>
-      <c r="B316" s="1"/>
-      <c r="C316" s="1"/>
-      <c r="D316" s="1"/>
-      <c r="E316" s="1"/>
-      <c r="F316" s="1"/>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" s="1"/>
-      <c r="B317" s="1"/>
-      <c r="C317" s="1"/>
-      <c r="D317" s="1"/>
-      <c r="E317" s="1"/>
-      <c r="F317" s="1"/>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" s="1"/>
-      <c r="B318" s="1"/>
-      <c r="C318" s="1"/>
-      <c r="D318" s="1"/>
-      <c r="E318" s="1"/>
-      <c r="F318" s="1"/>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="1"/>
-      <c r="B319" s="1"/>
-      <c r="C319" s="1"/>
-      <c r="D319" s="1"/>
-      <c r="E319" s="1"/>
-      <c r="F319" s="1"/>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="1"/>
-      <c r="B320" s="1"/>
-      <c r="C320" s="1"/>
-      <c r="D320" s="1"/>
-      <c r="E320" s="1"/>
-      <c r="F320" s="1"/>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="1"/>
-      <c r="B321" s="1"/>
-      <c r="C321" s="1"/>
-      <c r="D321" s="1"/>
-      <c r="E321" s="1"/>
-      <c r="F321" s="1"/>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="1"/>
-      <c r="B322" s="1"/>
-      <c r="C322" s="1"/>
-      <c r="D322" s="1"/>
-      <c r="E322" s="1"/>
-      <c r="F322" s="1"/>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="1"/>
-      <c r="B323" s="1"/>
-      <c r="C323" s="1"/>
-      <c r="D323" s="1"/>
-      <c r="E323" s="1"/>
-      <c r="F323" s="1"/>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="1"/>
-      <c r="B324" s="1"/>
-      <c r="C324" s="1"/>
-      <c r="D324" s="1"/>
-      <c r="E324" s="1"/>
-      <c r="F324" s="1"/>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="1"/>
-      <c r="B325" s="1"/>
-      <c r="C325" s="1"/>
-      <c r="D325" s="1"/>
-      <c r="E325" s="1"/>
-      <c r="F325" s="1"/>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="1"/>
-      <c r="B326" s="1"/>
-      <c r="C326" s="1"/>
-      <c r="D326" s="1"/>
-      <c r="E326" s="1"/>
-      <c r="F326" s="1"/>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="1"/>
-      <c r="B327" s="1"/>
-      <c r="C327" s="1"/>
-      <c r="D327" s="1"/>
-      <c r="E327" s="1"/>
-      <c r="F327" s="1"/>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="1"/>
-      <c r="B328" s="1"/>
-      <c r="C328" s="1"/>
-      <c r="D328" s="1"/>
-      <c r="E328" s="1"/>
-      <c r="F328" s="1"/>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="1"/>
-      <c r="B329" s="1"/>
-      <c r="C329" s="1"/>
-      <c r="D329" s="1"/>
-      <c r="E329" s="1"/>
-      <c r="F329" s="1"/>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="1"/>
-      <c r="B330" s="1"/>
-      <c r="C330" s="1"/>
-      <c r="D330" s="1"/>
-      <c r="E330" s="1"/>
-      <c r="F330" s="1"/>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="1"/>
-      <c r="B331" s="1"/>
-      <c r="C331" s="1"/>
-      <c r="D331" s="1"/>
-      <c r="E331" s="1"/>
-      <c r="F331" s="1"/>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="1"/>
-      <c r="B332" s="1"/>
-      <c r="C332" s="1"/>
-      <c r="D332" s="1"/>
-      <c r="E332" s="1"/>
-      <c r="F332" s="1"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B44" r:id="rId1" display="https://or.jcrew.com/mens_feature/TheSuitShop.jsp?sidecar=true"/>
+    <hyperlink ref="B45" r:id="rId2"/>
+    <hyperlink ref="B47" r:id="rId3"/>
+    <hyperlink ref="B49" r:id="rId4"/>
+    <hyperlink ref="B48" r:id="rId5"/>
+    <hyperlink ref="B43" r:id="rId6" display="https://or.jcrew.com/c/womens_special_shops/weartoworkshop"/>
+    <hyperlink ref="B57" r:id="rId7" display="https://or.jcrew.com/ca/c/womens_feature/newarrivals"/>
+    <hyperlink ref="B59" r:id="rId8" display="https://or.jcrew.com/ca/womens-clothing.jsp?sidecar=true"/>
+    <hyperlink ref="B58" r:id="rId9" display="https://or.jcrew.com/ca/womens_feature/lookswelove.jsp?sidecar=true"/>
+    <hyperlink ref="B61" r:id="rId10" display="https://or.jcrew.com/ca/c/womens_category/tshirtsandtanktops"/>
+    <hyperlink ref="B68" r:id="rId11" display="https://or.jcrew.com/ca/c/womens_category/outerwear"/>
+    <hyperlink ref="B69" r:id="rId12" display="https://or.jcrew.com/ca/c/womens_category/suiting"/>
+    <hyperlink ref="B73" r:id="rId13" display="https://or.jcrew.com/ca/c/womens_category/swim2"/>
+    <hyperlink ref="B74" r:id="rId14" display="https://or.jcrew.com/ca/c/womens_category/beachcoverups"/>
+    <hyperlink ref="B75" r:id="rId15" display="https://or.jcrew.com/ca/c/womens_category/ingoodcompany"/>
+    <hyperlink ref="B77" r:id="rId16" display="https://or.jcrew.com/womens_category/Collection.jsp?sidecar=true"/>
+    <hyperlink ref="B78" r:id="rId17" display="https://or.jcrew.com/ca/c/womens_category/sweatshirtssweatpants"/>
+    <hyperlink ref="B79" r:id="rId18" display="https://or.jcrew.com/ca/c/womens_category/shoes"/>
+    <hyperlink ref="B60" r:id="rId19" display="https://or.jcrew.com/ca/c/womens_category/shirtsandtops"/>
+    <hyperlink ref="B64" r:id="rId20" display="https://or.jcrew.com/ca/c/womens_category/sweaters"/>
+    <hyperlink ref="B80" r:id="rId21" display="https://or.jcrew.com/womens_category/sunglasses.jsp?sidecar=true"/>
+    <hyperlink ref="B82" r:id="rId22" display="https://or.jcrew.com/womens_category/jewelry.jsp?sidecar=true"/>
+    <hyperlink ref="B83" r:id="rId23" display="https://or.jcrew.com/ca/c/womens_category/finejewelry"/>
+    <hyperlink ref="B85" r:id="rId24" display="https://or.jcrew.com/ca/c/womens_category/finejewelry"/>
+    <hyperlink ref="B89" r:id="rId25" display="https://or.jcrew.com/ca/c/womens_special_sizes/size16to20"/>
+    <hyperlink ref="B90" r:id="rId26" display="https://or.jcrew.com/ca/womens_feature/ReadytoPartyCollection.jsp?sidecar=true"/>
+    <hyperlink ref="B91" r:id="rId27" display="https://or.jcrew.com/ca/c/womens_special_shops/weartoworkshop"/>
+    <hyperlink ref="B92" r:id="rId28" display="https://or.jcrew.com/womens_special_shops/garmentsforgood.jsp?sidecar=true"/>
+    <hyperlink ref="B94" r:id="rId29" display="https://or.jcrew.com/r/search/?N=21+17&amp;Ntrm=&amp;Nsrt=3&amp;Npge=1&amp;Nrpp=60"/>
+    <hyperlink ref="B97" r:id="rId30" display="https://or.jcrew.com/ca/womens_special_shops/TheVacationShop_sm.jsp?sidecar=true"/>
+    <hyperlink ref="B101" r:id="rId31" display="https://or.jcrew.com/c/mens_category/polostees"/>
+    <hyperlink ref="B136" r:id="rId32"/>
+    <hyperlink ref="B137" r:id="rId33"/>
+    <hyperlink ref="B139" r:id="rId34"/>
+    <hyperlink ref="B149" r:id="rId35"/>
+    <hyperlink ref="B150" r:id="rId36"/>
+    <hyperlink ref="B151" r:id="rId37"/>
+    <hyperlink ref="B152" r:id="rId38"/>
+    <hyperlink ref="B153" r:id="rId39"/>
+    <hyperlink ref="B154" r:id="rId40"/>
+    <hyperlink ref="B155" r:id="rId41"/>
+    <hyperlink ref="B148" r:id="rId42"/>
+    <hyperlink ref="B156" r:id="rId43"/>
+    <hyperlink ref="B157" r:id="rId44"/>
+    <hyperlink ref="B158" r:id="rId45"/>
+    <hyperlink ref="B159" r:id="rId46"/>
+    <hyperlink ref="B160" r:id="rId47"/>
+    <hyperlink ref="B161" r:id="rId48"/>
+    <hyperlink ref="B163" r:id="rId49"/>
+    <hyperlink ref="B167" r:id="rId50"/>
+    <hyperlink ref="B169" r:id="rId51"/>
+    <hyperlink ref="B171" r:id="rId52"/>
+    <hyperlink ref="B3" r:id="rId53" display="https://or.jcrew.com/r/login"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId54"/>
 </worksheet>
 </file>
--- a/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Jcrew.xlsx
+++ b/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Jcrew.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\sidecar-functional-tests\desktop-functional-tests\ContentTestingSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="5865"/>
+    <workbookView windowHeight="5865" windowWidth="15270" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Home" sheetId="1" r:id="rId1"/>
+    <sheet name="Home" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -39,6 +39,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,23 +110,23 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -142,10 +143,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -180,7 +181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -215,7 +216,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -309,21 +310,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -340,7 +341,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -392,15 +393,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -408,11 +409,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="58.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,9 +480,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://or.jcrew.com/r/login"/>
+    <hyperlink display="https://or.jcrew.com/r/login" r:id="rId1" ref="B3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" r:id="rId2"/>
 </worksheet>
 </file>